--- a/design.xlsx
+++ b/design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT" sheetId="2" r:id="rId1"/>
@@ -22,16 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>task_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>plan_start_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,6 +52,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>task_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,26 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,14 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,23 +104,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>create_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>create_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weight</t>
+    <t>create_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deal_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,43 +502,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -550,38 +539,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -593,19 +584,22 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -619,38 +613,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -664,45 +658,46 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="4" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="3" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
